--- a/biology/Botanique/Tricyrtis_macropoda/Tricyrtis_macropoda.xlsx
+++ b/biology/Botanique/Tricyrtis_macropoda/Tricyrtis_macropoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricyrtis macropoda est une espèce de plantes de la famille des Liliacées, originaire de Chine et du Japon.
 Comme les espèces de ce genre, Tricyrtis macropoda est souvent dénommée Lis crapaud.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricyrtis macropoda est une plante herbacée pérenne pouvant atteindre 80 cm de haut.
 La partie inférieure de la plante est glabre, alors que sa partie supérieure est finement pubescente. Les feuilles sont alternes, ovales-elliptiques, oblongues, pouvant atteindre jusqu'à 12 cm de long.
@@ -521,7 +535,7 @@
 Comme pour le genre, la fleur est composée de six sépales : trois extérieurs avec sept nervures, trois intérieurs avec cinq nervures.
 Elle porte six étamines. Son pistil, triloculaire, tubulaire, est profondément divisé à sa moitié supérieure où chaque partie est perpendiculaire à l'axe du pistil sur une importante longueur (du tiers à la moitié de la longueur total du pistil) et avec l'extrémité recourbée.
 Les graines, nombreuses par locule, sont de petite taille et aplaties.
-À l'identique de tout le genre, elle compte 2 × n = 26 chromosomes[1].
+À l'identique de tout le genre, elle compte 2 × n = 26 chromosomes.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les espèces du genre, Tricyrtis macropoda est originaire d'Asie, de Chine (Anhui, Fujian, Guangdong, Guangxi, Guizhou, Hubei, Hunan, Jiangsu, Jiangxi) et du Japon (Zhejiang). Sa large utilisation ornementale l'a répandue à l'ensemble des pays à climat tempéré, en particulier en France.
 Elle affectionne les terrains humides ombragés, en forêt, talus herbeux et crevasses rocheuses. Dans sa région d'origine, elle est présente à des altitudes comprises entre 800 et 2 400 m.
@@ -582,11 +598,13 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1869, Friedrich Anton Wilhelm Miquel décrit dans le genre Tricyrtis cette plante : Tricyrtis macropoda[2]
-En 1881, John Gilbert Baker en fait une description très complète[3]. Il préfère cependant le genre Tricyrtis au genre Compsoa malgré l'antériorité de ce dernier.
-En 1891, Carl Ernst Otto Kuntze se remémore la description du genre Compsoa par David Don[4], constate l'antériorité de cette dénomination sur celle de Nathaniel Wallich et renomme donc cette espèce : Compsoa macropoda (Miq.) Kuntze[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1869, Friedrich Anton Wilhelm Miquel décrit dans le genre Tricyrtis cette plante : Tricyrtis macropoda
+En 1881, John Gilbert Baker en fait une description très complète. Il préfère cependant le genre Tricyrtis au genre Compsoa malgré l'antériorité de ce dernier.
+En 1891, Carl Ernst Otto Kuntze se remémore la description du genre Compsoa par David Don, constate l'antériorité de cette dénomination sur celle de Nathaniel Wallich et renomme donc cette espèce : Compsoa macropoda (Miq.) Kuntze.
 Cette espèce compte plusieurs variétés et sous-espèces :
 Tricyrtis macropoda subsp. affinis (Makino) Kitam. (1964) : voir Tricyrtis affinis Makino
 Tricyrtis macropoda var. chiugokuensis (Koidz.) Ohwi (1965)
@@ -622,12 +640,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est largement utilisée en horticulture ornementale : cette utilisation l'a néanmoins répandue dans l'ensemble des pays à climat tempéré. Deux principales variétés horticoles sont disponibles :
 Tricyrtis macropoda 'Tricolor'
 Tricyrtis macropoda 'Yungi Temple Form'
-Une utilisation alimentaire des jeunes feuilles est signalée[6].
+Une utilisation alimentaire des jeunes feuilles est signalée.
 </t>
         </is>
       </c>
